--- a/logs/piczak_cv_results.xlsx
+++ b/logs/piczak_cv_results.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucacambiaghi/PycharmProjects/02456-Project---Background-Audio-Classification/logs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucacambiaghi/git/02456-Project---Background-Audio-Classification/logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="27780" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="boxplot" sheetId="3" r:id="rId1"/>
+    <sheet name="cv" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>run1</t>
   </si>
@@ -407,6 +408,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.63174552935591</v>
+      </c>
+      <c r="B2">
+        <v>0.69034502754421501</v>
+      </c>
+      <c r="C2">
+        <v>0.56891913277417305</v>
+      </c>
+      <c r="D2">
+        <v>0.63960568280661001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.52421924792861696</v>
+      </c>
+      <c r="B3">
+        <v>0.67187044065340196</v>
+      </c>
+      <c r="C3">
+        <v>0.58492670490758403</v>
+      </c>
+      <c r="D3">
+        <v>0.58681062153486996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>0.51910875019324199</v>
+      </c>
+      <c r="B4">
+        <v>0.51875252057217902</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.51114062250091397</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.56351660169377604</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.61426947156158995</v>
+      </c>
+      <c r="B5">
+        <v>0.65141354372123605</v>
+      </c>
+      <c r="C5">
+        <v>0.59096077326822805</v>
+      </c>
+      <c r="D5">
+        <v>0.67074293228139303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.62309433962264105</v>
+      </c>
+      <c r="B6">
+        <v>0.68328242154956897</v>
+      </c>
+      <c r="C6">
+        <v>0.63139622641509396</v>
+      </c>
+      <c r="D6">
+        <v>0.63496251041377305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.55022869733315705</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.51530139103554795</v>
+      </c>
+      <c r="C7">
+        <v>0.57665593775979096</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.56429675425038595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.55551921504497104</v>
+      </c>
+      <c r="B8">
+        <v>0.62385870373332897</v>
+      </c>
+      <c r="C8">
+        <v>0.58397383484212595</v>
+      </c>
+      <c r="D8">
+        <v>0.60919024092835905</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.58750869869854006</v>
+      </c>
+      <c r="B9">
+        <v>0.54843875101988904</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.660577592205984</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.70424339471577202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>0.64779238288586105</v>
+      </c>
+      <c r="B10">
+        <v>0.70367498842574405</v>
+      </c>
+      <c r="C10">
+        <v>0.65891472868217005</v>
+      </c>
+      <c r="D10">
+        <v>0.67529849591394198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.73790690599330699</v>
+      </c>
+      <c r="C11">
+        <v>0.64657308011385695</v>
+      </c>
+      <c r="D11">
+        <v>0.60115606936416099</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
